--- a/state_results/Rivers/ManganuioteAoatAshworth_40125c59aa.xlsx
+++ b/state_results/Rivers/ManganuioteAoatAshworth_40125c59aa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2696,6 +2696,237 @@
       </c>
       <c r="U29" t="inlineStr"/>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ashworth</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.3342</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.39065</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.391</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1789685</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5646155</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ashworth</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>104.76</v>
+      </c>
+      <c r="G31" t="n">
+        <v>101.672</v>
+      </c>
+      <c r="H31" t="n">
+        <v>112</v>
+      </c>
+      <c r="I31" t="n">
+        <v>112</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>104.3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>111.16</v>
+      </c>
+      <c r="N31" t="n">
+        <v>112</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1789685</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5646155</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Manganui o te Ao at Ashworth</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.6614</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>3.494</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4.21615</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1789685</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5646155</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Whai_5i</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/ManganuioteAoatAshworth_40125c59aa.xlsx
+++ b/state_results/Rivers/ManganuioteAoatAshworth_40125c59aa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="46">
   <si>
     <t>site name</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -506,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U32"/>
+  <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,7 +594,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <v>122</v>
@@ -621,16 +624,16 @@
         <v>5646155</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -647,7 +650,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3">
         <v>0.702</v>
@@ -677,16 +680,16 @@
         <v>5646155</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -703,7 +706,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4">
         <v>122</v>
@@ -733,16 +736,16 @@
         <v>5646155</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -759,7 +762,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <v>6.36</v>
@@ -789,16 +792,16 @@
         <v>5646155</v>
       </c>
       <c r="Q5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -815,7 +818,7 @@
         <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6">
         <v>0.702</v>
@@ -845,16 +848,16 @@
         <v>5646155</v>
       </c>
       <c r="Q6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -871,7 +874,7 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7">
         <v>122</v>
@@ -901,16 +904,16 @@
         <v>5646155</v>
       </c>
       <c r="Q7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -927,7 +930,7 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8">
         <v>6.36</v>
@@ -957,16 +960,16 @@
         <v>5646155</v>
       </c>
       <c r="Q8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -983,7 +986,7 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9">
         <v>0.702</v>
@@ -1013,16 +1016,16 @@
         <v>5646155</v>
       </c>
       <c r="Q9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1039,7 +1042,7 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10">
         <v>122</v>
@@ -1069,16 +1072,16 @@
         <v>5646155</v>
       </c>
       <c r="Q10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1095,7 +1098,7 @@
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11">
         <v>6.36</v>
@@ -1125,16 +1128,16 @@
         <v>5646155</v>
       </c>
       <c r="Q11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1151,7 +1154,7 @@
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12">
         <v>0.452</v>
@@ -1181,16 +1184,16 @@
         <v>5646155</v>
       </c>
       <c r="Q12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1207,7 +1210,7 @@
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13">
         <v>108</v>
@@ -1237,16 +1240,16 @@
         <v>5646155</v>
       </c>
       <c r="Q13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1263,7 +1266,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14">
         <v>4.47</v>
@@ -1293,16 +1296,16 @@
         <v>5646155</v>
       </c>
       <c r="Q14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1319,7 +1322,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15">
         <v>0.429</v>
@@ -1349,16 +1352,16 @@
         <v>5646155</v>
       </c>
       <c r="Q15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1375,7 +1378,7 @@
         <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F16">
         <v>106</v>
@@ -1405,16 +1408,16 @@
         <v>5646155</v>
       </c>
       <c r="Q16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1431,7 +1434,7 @@
         <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F17">
         <v>4.18</v>
@@ -1461,16 +1464,16 @@
         <v>5646155</v>
       </c>
       <c r="Q17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1487,7 +1490,7 @@
         <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18">
         <v>0.425</v>
@@ -1517,16 +1520,16 @@
         <v>5646155</v>
       </c>
       <c r="Q18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1543,7 +1546,7 @@
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F19">
         <v>106</v>
@@ -1573,16 +1576,16 @@
         <v>5646155</v>
       </c>
       <c r="Q19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1599,7 +1602,7 @@
         <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20">
         <v>4.18</v>
@@ -1629,16 +1632,16 @@
         <v>5646155</v>
       </c>
       <c r="Q20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1655,7 +1658,7 @@
         <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F21">
         <v>0.358</v>
@@ -1685,16 +1688,16 @@
         <v>5646155</v>
       </c>
       <c r="Q21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1711,7 +1714,7 @@
         <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22">
         <v>102.07</v>
@@ -1741,16 +1744,16 @@
         <v>5646155</v>
       </c>
       <c r="Q22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1767,7 +1770,7 @@
         <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23">
         <v>3.298</v>
@@ -1797,16 +1800,16 @@
         <v>5646155</v>
       </c>
       <c r="Q23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1823,7 +1826,7 @@
         <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F24">
         <v>0.358</v>
@@ -1853,16 +1856,16 @@
         <v>5646155</v>
       </c>
       <c r="Q24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1879,7 +1882,7 @@
         <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>102.07</v>
@@ -1909,16 +1912,16 @@
         <v>5646155</v>
       </c>
       <c r="Q25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -1935,7 +1938,7 @@
         <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F26">
         <v>3.298</v>
@@ -1965,16 +1968,16 @@
         <v>5646155</v>
       </c>
       <c r="Q26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -1991,7 +1994,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F27">
         <v>0.358</v>
@@ -2021,16 +2024,16 @@
         <v>5646155</v>
       </c>
       <c r="Q27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2047,7 +2050,7 @@
         <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F28">
         <v>102.07</v>
@@ -2077,16 +2080,16 @@
         <v>5646155</v>
       </c>
       <c r="Q28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2103,7 +2106,7 @@
         <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F29">
         <v>3.298</v>
@@ -2133,16 +2136,16 @@
         <v>5646155</v>
       </c>
       <c r="Q29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2159,7 +2162,7 @@
         <v>39</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F30">
         <v>0.358</v>
@@ -2174,7 +2177,7 @@
         <v>0.391</v>
       </c>
       <c r="L30">
-        <v>0.314</v>
+        <v>0.358</v>
       </c>
       <c r="M30">
         <v>0.39065</v>
@@ -2189,16 +2192,16 @@
         <v>5646155</v>
       </c>
       <c r="Q30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2215,7 +2218,7 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F31">
         <v>104.76</v>
@@ -2230,7 +2233,7 @@
         <v>112</v>
       </c>
       <c r="L31">
-        <v>104.3</v>
+        <v>104.76</v>
       </c>
       <c r="M31">
         <v>111.16</v>
@@ -2245,16 +2248,16 @@
         <v>5646155</v>
       </c>
       <c r="Q31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2271,7 +2274,7 @@
         <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F32">
         <v>3.69</v>
@@ -2286,7 +2289,7 @@
         <v>4.29</v>
       </c>
       <c r="L32">
-        <v>3.494</v>
+        <v>3.69</v>
       </c>
       <c r="M32">
         <v>4.21615</v>
@@ -2301,16 +2304,184 @@
         <v>5646155</v>
       </c>
       <c r="Q32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T32" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33">
+        <v>0.372</v>
+      </c>
+      <c r="G33">
+        <v>0.337</v>
+      </c>
+      <c r="H33">
+        <v>0.391</v>
+      </c>
+      <c r="I33">
+        <v>0.391</v>
+      </c>
+      <c r="L33">
+        <v>0.372</v>
+      </c>
+      <c r="M33">
+        <v>0.39065</v>
+      </c>
+      <c r="N33">
+        <v>0.391</v>
+      </c>
+      <c r="O33">
+        <v>1789685</v>
+      </c>
+      <c r="P33">
+        <v>5646155</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>42</v>
+      </c>
+      <c r="R33" t="s">
+        <v>43</v>
+      </c>
+      <c r="S33" t="s">
+        <v>44</v>
+      </c>
+      <c r="T33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34">
+        <v>104.76</v>
+      </c>
+      <c r="G34">
+        <v>100.544</v>
+      </c>
+      <c r="H34">
+        <v>109.6</v>
+      </c>
+      <c r="I34">
+        <v>109.6</v>
+      </c>
+      <c r="L34">
+        <v>104.76</v>
+      </c>
+      <c r="M34">
+        <v>108.466</v>
+      </c>
+      <c r="N34">
+        <v>109.6</v>
+      </c>
+      <c r="O34">
+        <v>1789685</v>
+      </c>
+      <c r="P34">
+        <v>5646155</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>42</v>
+      </c>
+      <c r="R34" t="s">
+        <v>43</v>
+      </c>
+      <c r="S34" t="s">
+        <v>44</v>
+      </c>
+      <c r="T34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35">
+        <v>3.298</v>
+      </c>
+      <c r="G35">
+        <v>3.4098</v>
+      </c>
+      <c r="H35">
+        <v>4.079</v>
+      </c>
+      <c r="I35">
+        <v>4.079</v>
+      </c>
+      <c r="L35">
+        <v>3.298</v>
+      </c>
+      <c r="M35">
+        <v>3.94285</v>
+      </c>
+      <c r="N35">
+        <v>4.079</v>
+      </c>
+      <c r="O35">
+        <v>1789685</v>
+      </c>
+      <c r="P35">
+        <v>5646155</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>42</v>
+      </c>
+      <c r="R35" t="s">
+        <v>43</v>
+      </c>
+      <c r="S35" t="s">
+        <v>44</v>
+      </c>
+      <c r="T35" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
